--- a/tpGestion.xlsx
+++ b/tpGestion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="4680"/>
@@ -10,12 +10,12 @@
     <sheet name="Clientes y operaciones" sheetId="1" r:id="rId1"/>
     <sheet name="Roles y usuarios" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
   <si>
     <t>Cliente</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>x                        x</t>
+  </si>
+  <si>
+    <t>importe</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -480,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,6 +519,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1620,15 +1632,26 @@
       </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="6:12" ht="15.75" thickBot="1">
-      <c r="J34" s="14" t="s">
+    <row r="34" spans="6:12">
+      <c r="J34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="16" t="s">
+      <c r="K34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" ht="15.75" thickBot="1">
+      <c r="J35" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tpGestion.xlsx
+++ b/tpGestion.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
-  <si>
-    <t>Cliente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t>idCli</t>
   </si>
@@ -303,6 +300,18 @@
   </si>
   <si>
     <t>importe</t>
+  </si>
+  <si>
+    <t>Parametrizacion</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Clientes</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -522,6 +531,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -839,40 +854,40 @@
     <row r="1" spans="2:16" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -891,183 +906,183 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="6"/>
       <c r="N5" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
@@ -1075,163 +1090,163 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="N10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="N11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1">
       <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1">
       <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1242,66 +1257,66 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1">
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1">
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="6"/>
       <c r="J18" s="17"/>
@@ -1310,31 +1325,31 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -1342,209 +1357,209 @@
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="6"/>
       <c r="J20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="6"/>
       <c r="F24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1">
       <c r="B25" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="16"/>
       <c r="F25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1">
       <c r="F26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1">
       <c r="F27" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:16" ht="15.75" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1">
@@ -1552,13 +1567,13 @@
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="F30" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
@@ -1566,92 +1581,92 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1">
       <c r="B32" s="28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="6:12" ht="15.75" thickBot="1">
       <c r="F33" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="6:12">
       <c r="J34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="6:12" ht="15.75" thickBot="1">
       <c r="J35" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1680,7 @@
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1673,29 +1688,29 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:9" ht="15.75" thickBot="1">
       <c r="C2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="3:9">
@@ -1708,102 +1723,102 @@
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickBot="1">
       <c r="C6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="G7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15.75" thickBot="1">
       <c r="G8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1">
       <c r="C9" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -1813,64 +1828,101 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15.75" thickBot="1">
       <c r="C12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1"/>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1">
+      <c r="G13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="33"/>
+    </row>
     <row r="14" spans="3:9" ht="15.75" thickBot="1">
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="22"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
+      <c r="G15" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" thickBot="1">
       <c r="C17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tpGestion.xlsx
+++ b/tpGestion.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
+  <si>
+    <t>Cliente</t>
+  </si>
   <si>
     <t>idCli</t>
   </si>
@@ -300,18 +303,6 @@
   </si>
   <si>
     <t>importe</t>
-  </si>
-  <si>
-    <t>Parametrizacion</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>Clientes</t>
   </si>
 </sst>
 </file>
@@ -498,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,12 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -854,40 +839,40 @@
     <row r="1" spans="2:16" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -906,183 +891,183 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1">
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="6"/>
       <c r="N5" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
@@ -1090,163 +1075,163 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="L11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1">
       <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="L13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1">
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1257,66 +1242,66 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1">
       <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1">
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1">
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="6"/>
       <c r="J18" s="17"/>
@@ -1325,31 +1310,31 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -1357,209 +1342,209 @@
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="6"/>
       <c r="J20" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="L23" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="L24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1">
       <c r="B25" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="16"/>
       <c r="F25" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1">
       <c r="F26" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="L26" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1">
       <c r="F27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:16" ht="15.75" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1">
@@ -1567,13 +1552,13 @@
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="F30" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
@@ -1581,92 +1566,92 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1">
       <c r="B32" s="28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="6:12" ht="15.75" thickBot="1">
       <c r="F33" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="6:12">
       <c r="J34" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="6:12" ht="15.75" thickBot="1">
       <c r="J35" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1665,7 @@
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1688,29 +1673,29 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="3:9" ht="15.75" thickBot="1">
       <c r="C2" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="3:9">
@@ -1723,102 +1708,102 @@
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickBot="1">
       <c r="C6" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15.75" thickBot="1">
       <c r="G8" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1">
       <c r="C9" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:9">
@@ -1828,101 +1813,64 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15.75" thickBot="1">
       <c r="C12" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1">
-      <c r="G13" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="33"/>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1"/>
     <row r="14" spans="3:9" ht="15.75" thickBot="1">
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="G15" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="3:9" ht="15.75" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1">
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>